--- a/biology/Zoologie/Coliiformes/Coliiformes.xlsx
+++ b/biology/Zoologie/Coliiformes/Coliiformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coliiformes constituent un ordre d'oiseaux ne contenant qu'une seule famille actuelle, les Coliidae, endémique de l'Afrique subsaharienne, mais aussi une autre famille disparue dont la répartition géographique s'étend aussi sur la zone paléarctique.
 </t>
@@ -513,24 +525,64 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Genres primitifs incertae sedis
-Chascacocolius (Paléocène ? - Éocène inférieur) - Sandcoleidae primitif [1]?
-Eocolius (Éocène inférieur de Walton-on-the-Naze, Angleterre) - Sandcoleidae ou Coliidae[2]?
+          <t>Genres primitifs incertae sedis</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chascacocolius (Paléocène ? - Éocène inférieur) - Sandcoleidae primitif ?
+Eocolius (Éocène inférieur de Walton-on-the-Naze, Angleterre) - Sandcoleidae ou Coliidae?
 Eocolius walkeri
 Selmes (Éocène moyen ? - Oligocène supérieur d'Europe centrale) - Coliidae ? (synonyme de Primocolius ?)
 Selmes absurdipes
-Limnatornis (Miocène inférieur de Saint-Gérand-le-Puy, France) - Coliidae ? (Urocolius ?), incluant "Picus" consobrinus [3]
-"Picus" archiaci (Miocène inférieur de Saint-Gérand-le-Puy, France) - Limnatornis ? Coliidae ? (Urocolius ?) [3]
-Necrornis (Miocène moyen, France) - Coliidae ? (Colius ?) [3]
+Limnatornis (Miocène inférieur de Saint-Gérand-le-Puy, France) - Coliidae ? (Urocolius ?), incluant "Picus" consobrinus 
+"Picus" archiaci (Miocène inférieur de Saint-Gérand-le-Puy, France) - Limnatornis ? Coliidae ? (Urocolius ?) 
+Necrornis (Miocène moyen, France) - Coliidae ? (Colius ?) 
 D'après Mlíkovský (2002) :
 Eobucco (Miocène supérieur de Kohfidisch, Autriche)
 Uintornis (Miocène supérieur de Kohfidisch, Autriche)
-Ces deux derniers genres sont placés par Houde et Olson (1992) dans la famille des Sandcoleidae[4]. Ils y placent aussi Chascacocolius. Pour Mayr et Peters (1998), les genres Chascacocolius et Chascacocolius ont une position intermédiaire entre les deux familles.
-Famille des Coliidae, genres fossiles et actuels
-Genres primitifs incertae sedis (exclusivement fossiles)
-Primocolius Mourer-Chauviré, 1988 (Éocène supérieur - Oligocène du Quercy, France)[2]
+Ces deux derniers genres sont placés par Houde et Olson (1992) dans la famille des Sandcoleidae. Ils y placent aussi Chascacocolius. Pour Mayr et Peters (1998), les genres Chascacocolius et Chascacocolius ont une position intermédiaire entre les deux familles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Coliiformes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliiformes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille des Coliidae, genres fossiles et actuels</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Genres primitifs incertae sedis (exclusivement fossiles)
+Primocolius Mourer-Chauviré, 1988 (Éocène supérieur - Oligocène du Quercy, France)
 Primocolus minor
-Oligocolius (Oligocène inférieur de Frauenweiler, Allemagne) [5]
+Oligocolius (Oligocène inférieur de Frauenweiler, Allemagne) 
 Oligocolius brevitarsus
 Masillacolius Mayr &amp; Peters, 1998 (Éocène moyen de Grube Messel, Allemagne)
 Masillacolius brevidactylus
@@ -538,12 +590,46 @@
  Sous-famille des Coliinae
 Colius (4 espèces)
  Sous-famille des Urocoliinae
-Urocolius (2 espèces)
-Famille des Sandcoleidae (exclusivement fossile)
-D'après Houde &amp; Olson (1992) :
-Sandcoleus [6]
-Anneavis [7]
-Eoglaucidium [8]
+Urocolius (2 espèces)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Coliiformes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliiformes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Famille des Sandcoleidae (exclusivement fossile)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après Houde &amp; Olson (1992) :
+Sandcoleus 
+Anneavis 
+Eoglaucidium 
 Eoglaucidium pallas</t>
         </is>
       </c>
